--- a/backTesting/trade2021.xlsx
+++ b/backTesting/trade2021.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,30 +2081,59 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44252.75</v>
+        <v>44252</v>
       </c>
       <c r="B57" t="n">
         <v>55331000</v>
       </c>
       <c r="C57" t="n">
-        <v>57714000</v>
+        <v>58714000</v>
       </c>
       <c r="D57" t="n">
         <v>53994000</v>
       </c>
       <c r="E57" t="n">
-        <v>55660000</v>
+        <v>57468000</v>
       </c>
       <c r="F57" t="n">
-        <v>8044.56762654</v>
+        <v>10385.11905413</v>
       </c>
       <c r="G57" t="n">
-        <v>1860000</v>
+        <v>2360000</v>
       </c>
       <c r="H57" t="n">
         <v>58515000</v>
       </c>
       <c r="I57" t="n">
+        <v>0.9821071520123046</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44253.625</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57413000</v>
+      </c>
+      <c r="C58" t="n">
+        <v>57916000</v>
+      </c>
+      <c r="D58" t="n">
+        <v>52868000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>53600000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9780.75192366</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2524000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>59773000</v>
+      </c>
+      <c r="I58" t="n">
         <v>1</v>
       </c>
     </row>
